--- a/Configs/Datas/MoveData.xlsx
+++ b/Configs/Datas/MoveData.xlsx
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1028,7 +1028,6 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
@@ -1045,7 +1044,6 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>

--- a/Configs/Datas/MoveData.xlsx
+++ b/Configs/Datas/MoveData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>##var</t>
   </si>
@@ -43,6 +43,9 @@
     <t>*Speed</t>
   </si>
   <si>
+    <t>*radis</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t>Walk = 1|Run = 2|Dash = 3</t>
+  </si>
+  <si>
+    <t>移动监测半径</t>
   </si>
   <si>
     <t>不能重复</t>
@@ -1001,7 +1007,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1028,21 +1034,27 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1058,23 +1070,26 @@
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:14">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:5">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1084,13 +1099,19 @@
       <c r="D6">
         <v>5</v>
       </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="3:5">
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
         <v>7</v>
+      </c>
+      <c r="E7">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/MoveData.xlsx
+++ b/Configs/Datas/MoveData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>##var</t>
   </si>
@@ -46,6 +46,9 @@
     <t>*radis</t>
   </si>
   <si>
+    <t>*canForceMove</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>list,float</t>
+  </si>
+  <si>
+    <t>list,bool</t>
   </si>
   <si>
     <t>##</t>
@@ -1004,13 +1010,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="27.875" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
@@ -1037,24 +1043,30 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1070,26 +1082,26 @@
     </row>
     <row r="4" ht="26" customHeight="1" spans="1:14">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:6">
       <c r="B6">
         <v>1</v>
       </c>
@@ -1102,8 +1114,11 @@
       <c r="E6">
         <v>0.5</v>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:6">
       <c r="C7">
         <v>2</v>
       </c>
@@ -1112,6 +1127,26 @@
       </c>
       <c r="E7">
         <v>0.4</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
